--- a/utils/test_data.xlsx
+++ b/utils/test_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="4305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="4305"/>
   </bookViews>
   <sheets>
-    <sheet name="login_data" sheetId="1" r:id="rId1"/>
-    <sheet name="address" sheetId="2" r:id="rId2"/>
+    <sheet name="registration_data" sheetId="2" r:id="rId1"/>
+    <sheet name="login_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Email</t>
   </si>
@@ -28,18 +28,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>tester1@email.com</t>
-  </si>
-  <si>
-    <t>tester2@email.com</t>
-  </si>
-  <si>
-    <t>testerselenium2</t>
-  </si>
-  <si>
-    <t>testerselenium1</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>Anderson</t>
   </si>
   <si>
-    <t>ABC co.</t>
-  </si>
-  <si>
     <t>15 George St.</t>
   </si>
   <si>
@@ -140,6 +125,9 @@
   </si>
   <si>
     <t>anderson321</t>
+  </si>
+  <si>
+    <t>ABC Co.</t>
   </si>
 </sst>
 </file>
@@ -474,71 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,82 +483,82 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
       <c r="F2" s="5">
         <f>DATE(1970,5,15)</f>
         <v>25703</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M2">
         <v>654123001</v>
@@ -639,41 +566,41 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="5">
         <f>DATE(1976,7,31)</f>
         <v>27972</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M3">
         <v>485215465</v>
@@ -682,4 +609,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>